--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>ticker</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>take_profit</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>order_type</t>
         </is>
       </c>
     </row>
@@ -433,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.8314</v>
+        <v>2.8</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -442,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>70.64</v>
+        <v>70.2</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -458,64 +463,24 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>70.07371999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1.69884</v>
+        <v>1.7</v>
       </c>
       <c r="L2" t="n">
-        <v>67.24231999999999</v>
+        <v>66.8</v>
       </c>
       <c r="M2" t="n">
-        <v>68.09174</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9006999999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>AKCA</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>167</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.82986</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5404199999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.92916</v>
-      </c>
-      <c r="M3" t="n">
-        <v>17.19937</v>
+        <v>67.59999999999999</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New_Trade_Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,84 +402,1024 @@
           <t>ticker</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>stop_price</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>trail_amount</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop_loss</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>take_profit</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>order_type</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.8</v>
+        <v>0.9675</v>
       </c>
       <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.4682</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ARVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1567</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ASYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2818</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BKSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6319</v>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AAXN</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>43</v>
-      </c>
-      <c r="J2" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CORR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1553</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EIGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>INFU</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7729</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OXSQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.3111</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5115</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PRVB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0167</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>REPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3544</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>VALU</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.2249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>WPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2477</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.8985</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ANIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3136</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>APRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8534</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>EBIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.9674</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>EHTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.5237</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ENTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.2811</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>80.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>GATX</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3979</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>HBI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6183999999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>MPAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6633</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NYT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.8608</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>OLLI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.0091</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PTLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TISI</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.9942</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TRUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.6551</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>184.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.3832</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>185.53</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>WDFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.4373</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>WWE</t>
         </is>
       </c>
     </row>

--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,19 +408,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9675</v>
+        <v>1.042</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>46.16</v>
+        <v>47.08</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.4682</v>
+        <v>1.1744</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>46.5</v>
+        <v>114.48</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -459,7 +459,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ARVN</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1567</v>
+        <v>3.5512</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>7.32</v>
+        <v>113.92</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ASYS</t>
+          <t>ALXN</t>
         </is>
       </c>
     </row>
@@ -498,19 +498,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2818</v>
+        <v>0.4072</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>19.23</v>
+        <v>26.61</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BKSC</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6319</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>45.57</v>
+        <v>34.31</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CORR</t>
+          <t>APAM</t>
         </is>
       </c>
     </row>
@@ -558,19 +558,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2055</v>
+        <v>1.054</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>17.49</v>
+        <v>63.97</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1553</v>
+        <v>3.4347</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>5.03</v>
+        <v>276.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EIGI</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.256</v>
+        <v>0.5461</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8.81</v>
+        <v>26.79</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>INFU</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
@@ -648,19 +648,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7729</v>
+        <v>0.3404</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>53.41</v>
+        <v>16.67</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>BPMP</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1099</v>
+        <v>1.0132</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>5.84</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>BRKR</t>
         </is>
       </c>
     </row>
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.3111</v>
+        <v>1.0346</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>45.9</v>
+        <v>58.43</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5115</v>
+        <v>1.8755</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>39.49</v>
+        <v>143.29</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9555</v>
+        <v>1.4544</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>15.63</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PRVB</t>
+          <t>CCOI</t>
         </is>
       </c>
     </row>
@@ -798,19 +798,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0167</v>
+        <v>1.2684</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>17.77</v>
+        <v>73.39</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>REPL</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -828,19 +828,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.3544</v>
+        <v>0.6851</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>31.49</v>
+        <v>36.97</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>VALU</t>
+          <t>CMTL</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.2249</v>
+        <v>1.4457</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>82.08</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>WPC</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
@@ -888,28 +888,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2477</v>
+        <v>1.3128</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7.24</v>
+        <v>62.15</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AMSC</t>
+          <t>CSOD</t>
         </is>
       </c>
     </row>
@@ -918,28 +918,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.8985</v>
+        <v>5.0392</v>
       </c>
       <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>282.85</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ANIK</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
@@ -948,28 +948,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3136</v>
+        <v>1.6512</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5.35</v>
+        <v>115.14</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -978,28 +978,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.81</v>
+        <v>0.3171</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>64.37</v>
+        <v>19.11</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CMD</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
@@ -1008,28 +1008,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8534</v>
+        <v>2.1893</v>
       </c>
       <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>76.68000000000001</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EBIX</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
@@ -1038,28 +1038,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.9674</v>
+        <v>1.0397</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>92.63</v>
+        <v>53.39</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>EHTH</t>
+          <t>ENTG</t>
         </is>
       </c>
     </row>
@@ -1068,28 +1068,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5237</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>58.82</v>
+        <v>25.98</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>EPRT</t>
         </is>
       </c>
     </row>
@@ -1098,28 +1098,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2811</v>
+        <v>0.5113</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>80.48</v>
+        <v>26.13</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>GATX</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
@@ -1128,28 +1128,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3979</v>
+        <v>1.6958</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>13.84</v>
+        <v>97.56999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>HBI</t>
+          <t>ESE</t>
         </is>
       </c>
     </row>
@@ -1158,28 +1158,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6183999999999999</v>
+        <v>1.108</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>20.53</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MPAA</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -1188,28 +1188,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6633</v>
+        <v>0.9866</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>31.25</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>FBHS</t>
         </is>
       </c>
     </row>
@@ -1218,28 +1218,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.8608</v>
+        <v>0.0516</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>57.77</v>
+        <v>10.58</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>OLLI</t>
+          <t>FPAC</t>
         </is>
       </c>
     </row>
@@ -1248,28 +1248,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0091</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>14.76</v>
+        <v>42.22</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PTLA</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
@@ -1278,28 +1278,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3595</v>
+        <v>1.4522</v>
       </c>
       <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TISI</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
@@ -1308,28 +1308,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.9942</v>
+        <v>0.6907</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>31.23</v>
+        <v>53.21</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TRUP</t>
+          <t>GGG</t>
         </is>
       </c>
     </row>
@@ -1338,28 +1338,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.6551</v>
+        <v>0.4467</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>184.22</v>
+        <v>30.4</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>GLW</t>
         </is>
       </c>
     </row>
@@ -1368,28 +1368,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.3832</v>
+        <v>0.4919</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>185.53</v>
+        <v>30.17</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>WDFC</t>
+          <t>GNTX</t>
         </is>
       </c>
     </row>
@@ -1398,28 +1398,2428 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.4373</v>
+        <v>19.6862</v>
       </c>
       <c r="C35" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1439.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19.6109</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1440.03</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.0999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6654</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HESM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4687</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.2515</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>53.77</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HUBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4923</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6561</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>LADR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.0084</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>LAMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="C46" t="n">
         <v>5</v>
       </c>
-      <c r="D35" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" t="n">
-        <v>60.69</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0923</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>138.94</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.8891</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>419.02</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6948</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>LNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>LUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>LXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.7559</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>251.49</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6637</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>38.805</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.4266</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>180.92</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3708</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5.2766</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>254.78</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>MTN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8843</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.3467</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NOVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.8366</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>251.98</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.4207</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>200.61</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ORC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ORGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2963</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>OXSQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7.1746</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>295.43</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PAYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>82.70999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2009</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PGRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.3477</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.0397</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>POWI</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PRGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.1981</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>115.28</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.0482</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9549</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>RGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>RJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4324</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>RMBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.2099</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4307</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SNDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.1622</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>STAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.8355</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>369.88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.5719</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>332.02</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.0363</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7233000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.8793</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8823</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>VNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.1066</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>95.06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.1224</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>WMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.5322</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>155.94</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7851</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>XRAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.1767</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>81.28</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12.5915</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>168.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>WWE</t>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ABMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3262</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>APRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.2446</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AVRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7299</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5891</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.2772</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CVGW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.4959</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ENTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9394</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>EOLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6637</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>FIXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.0283</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>GVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4763</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>MOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.2893</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3741</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10</v>
+      </c>
+      <c r="E112" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>TWNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5272</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>VCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4436</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>WNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>XERS</t>
         </is>
       </c>
     </row>

--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,19 +408,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.042</v>
+        <v>1.1561</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>47.08</v>
+        <v>50.33</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1744</v>
+        <v>0.1044</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>114.48</v>
+        <v>16.15</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -459,7 +459,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.5512</v>
+        <v>0.7953</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>113.92</v>
+        <v>79.75</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ALXN</t>
+          <t>AEE</t>
         </is>
       </c>
     </row>
@@ -498,19 +498,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4072</v>
+        <v>1.1413</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>26.61</v>
+        <v>111.28</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5741000000000001</v>
+        <v>1.4471</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>34.31</v>
+        <v>117.55</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>APAM</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.054</v>
+        <v>3.4182</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>63.97</v>
+        <v>270.28</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ANSS</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.4347</v>
+        <v>3.124</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>276.2</v>
+        <v>237</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5461</v>
+        <v>1.1306</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -627,10 +627,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>26.79</v>
+        <v>50.36</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3404</v>
+        <v>1.065</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
@@ -657,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>16.67</v>
+        <v>61.24</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BPMP</t>
+          <t>ATVI</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0132</v>
+        <v>1.8286</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>134.72</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BRKR</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0346</v>
+        <v>0.9983</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>58.43</v>
+        <v>48.75</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>BERY</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8755</v>
+        <v>0.5806</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>143.29</v>
+        <v>36.84</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BHE</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.4544</v>
+        <v>1.9311</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>71.09999999999999</v>
+        <v>145.25</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCOI</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
@@ -798,19 +798,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2684</v>
+        <v>0.8224</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>73.39</v>
+        <v>51.9</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>CCL</t>
         </is>
       </c>
     </row>
@@ -828,19 +828,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6851</v>
+        <v>2.9928</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>36.97</v>
+        <v>154.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CMTL</t>
+          <t>CCMP</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.4457</v>
+        <v>0.9082</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>96.26000000000001</v>
+        <v>40.87</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CFG</t>
         </is>
       </c>
     </row>
@@ -888,19 +888,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.3128</v>
+        <v>1.2426</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>62.15</v>
+        <v>58.64</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CSOD</t>
+          <t>CGNX</t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.0392</v>
+        <v>1.016</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>282.85</v>
+        <v>22.67</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CLW</t>
         </is>
       </c>
     </row>
@@ -948,19 +948,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.6512</v>
+        <v>2.3314</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>115.14</v>
+        <v>163.95</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
@@ -978,19 +978,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3171</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>19.11</v>
+        <v>41.71</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CUZ</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.1893</v>
+        <v>0.9165</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>76.68000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1038,19 +1038,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0397</v>
+        <v>0.9101</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>53.39</v>
+        <v>55.71</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -1068,16 +1068,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5185999999999999</v>
+        <v>1.5377</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>25.98</v>
+        <v>77.81</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EPRT</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -1098,19 +1098,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5113</v>
+        <v>1.1514</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>26.13</v>
+        <v>56.23</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ENTG</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.6958</v>
+        <v>0.6271</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -1137,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>97.56999999999999</v>
+        <v>47.39</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ESE</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.108</v>
+        <v>1.4386</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>71.79000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>EXP</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9866</v>
+        <v>0.6014</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>68.09999999999999</v>
+        <v>49.06</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FBHS</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -1218,19 +1218,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0516</v>
+        <v>1.5261</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10.58</v>
+        <v>120.68</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FPAC</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5822000000000001</v>
+        <v>0.5598</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>42.22</v>
+        <v>27.51</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FORM</t>
         </is>
       </c>
     </row>
@@ -1278,19 +1278,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.4522</v>
+        <v>0.721</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>72.66</v>
+        <v>34.83</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>FSS</t>
         </is>
       </c>
     </row>
@@ -1308,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6907</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>53.21</v>
+        <v>45.55</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GGG</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
@@ -1338,19 +1338,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4467</v>
+        <v>18.8361</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>30.4</v>
+        <v>1480.39</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>GOOG</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4919</v>
+        <v>18.7766</v>
       </c>
       <c r="C34" t="n">
         <v>6</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>30.17</v>
+        <v>1479.52</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GNTX</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.6862</v>
+        <v>3.2419</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1439.23</v>
+        <v>198.62</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.6109</v>
+        <v>1.6038</v>
       </c>
       <c r="C36" t="n">
         <v>6</v>
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>1440.03</v>
+        <v>113.92</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>HLT</t>
         </is>
       </c>
     </row>
@@ -1458,19 +1458,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0999</v>
+        <v>0.784</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>193.3</v>
+        <v>54.32</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6654</v>
+        <v>0.4563</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>20.43</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>HESM</t>
+          <t>HOMB</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1518,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4687</v>
+        <v>2.0483</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>33.7</v>
+        <v>183.23</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HON</t>
         </is>
       </c>
     </row>
@@ -1548,20 +1548,20 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.2515</v>
+        <v>0.4839</v>
       </c>
       <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" t="n">
-        <v>53.77</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>HUBG</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1489</v>
+        <v>1.9703</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>5.43</v>
+        <v>149.16</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>HUBB</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4923</v>
+        <v>1.7771</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10.41</v>
+        <v>78.22</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>IBKC</t>
         </is>
       </c>
     </row>
@@ -1638,19 +1638,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6561</v>
+        <v>1.3946</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>56.13</v>
+        <v>26.01</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>IIIN</t>
         </is>
       </c>
     </row>
@@ -1668,19 +1668,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2078</v>
+        <v>1.5886</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>18.54</v>
+        <v>89.03</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -1698,16 +1698,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0084</v>
+        <v>0.4427</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>90.25</v>
+        <v>40.6</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>JBGS</t>
         </is>
       </c>
     </row>
@@ -1728,19 +1728,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.641</v>
+        <v>0.5667</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>60.55</v>
+        <v>56.94</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1758,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0923</v>
+        <v>0.192</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>138.94</v>
+        <v>18.61</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LADR</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.8891</v>
+        <v>0.6862</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>419.02</v>
+        <v>57.16</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -1818,19 +1818,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6948</v>
+        <v>0.3504</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>55.58</v>
+        <v>86.55</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LOGM</t>
         </is>
       </c>
     </row>
@@ -1848,19 +1848,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2511</v>
+        <v>6.8421</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8.029999999999999</v>
+        <v>308</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
@@ -1878,19 +1878,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2077</v>
+        <v>0.6387</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10.75</v>
+        <v>49.09</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LXP</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.35</v>
+        <v>0.9747</v>
       </c>
       <c r="C52" t="n">
         <v>7</v>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>44.05</v>
+        <v>34.99</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>MC</t>
         </is>
       </c>
     </row>
@@ -1938,19 +1938,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.7559</v>
+        <v>3.4245</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>251.49</v>
+        <v>156.33</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
@@ -1968,19 +1968,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6637</v>
+        <v>3.5861</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>45.65</v>
+        <v>257.63</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MIC</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
@@ -1998,19 +1998,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6012999999999999</v>
+        <v>1.6013</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>38.805</v>
+        <v>119.03</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>MDT</t>
         </is>
       </c>
     </row>
@@ -2028,19 +2028,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.4266</v>
+        <v>0.5135</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>180.92</v>
+        <v>34.54</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2058,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3708</v>
+        <v>0.7076</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>21.69</v>
+        <v>32.32</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MPW</t>
+          <t>MGP</t>
         </is>
       </c>
     </row>
@@ -2088,19 +2088,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.2766</v>
+        <v>0.3649</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>254.78</v>
+        <v>22.29</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MPW</t>
         </is>
       </c>
     </row>
@@ -2118,19 +2118,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8843</v>
+        <v>0.2265</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>54.17</v>
+        <v>12.13</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>MWA</t>
         </is>
       </c>
     </row>
@@ -2148,19 +2148,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.3467</v>
+        <v>1.2656</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>96.31</v>
+        <v>109.31</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
@@ -2178,19 +2178,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.8366</v>
+        <v>2.1184</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>251.98</v>
+        <v>169.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -2208,19 +2208,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.4207</v>
+        <v>1.242</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>200.61</v>
+        <v>104.53</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0864</v>
+        <v>2.0264</v>
       </c>
       <c r="C63" t="n">
         <v>6</v>
@@ -2247,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6.1</v>
+        <v>97.64</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>NOVT</t>
         </is>
       </c>
     </row>
@@ -2268,19 +2268,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.279</v>
+        <v>0.1527</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>16.7</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ORGO</t>
+          <t>NRZ</t>
         </is>
       </c>
     </row>
@@ -2298,16 +2298,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2963</v>
+        <v>3.6052</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5.61</v>
+        <v>209.32</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ORN</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
@@ -2328,19 +2328,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1039</v>
+        <v>1.0263</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5.88</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -2358,19 +2358,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.1746</v>
+        <v>0.9996</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>295.43</v>
+        <v>77.17</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>OKE</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.5726</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>82.70999999999999</v>
+        <v>6.23</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ORC</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2009</v>
+        <v>0.9031</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>13.99</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PGRE</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
@@ -2448,19 +2448,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.3477</v>
+        <v>3.2927</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>91.8</v>
+        <v>141.6</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>PCTY</t>
         </is>
       </c>
     </row>
@@ -2478,19 +2478,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.0397</v>
+        <v>0.3527</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>105.6</v>
+        <v>23.27</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>POWI</t>
+          <t>PDM</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7088</v>
+        <v>1.5327</v>
       </c>
       <c r="C72" t="n">
         <v>7</v>
@@ -2517,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>44.21</v>
+        <v>86.44</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
@@ -2538,19 +2538,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1981</v>
+        <v>1.6402</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>115.28</v>
+        <v>141.26</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -2568,19 +2568,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0482</v>
+        <v>0.8772</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>90.97</v>
+        <v>57.08</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PFG</t>
         </is>
       </c>
     </row>
@@ -2598,19 +2598,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9549</v>
+        <v>1.1846</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>49.5</v>
+        <v>126.41</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>RGR</t>
+          <t>PG</t>
         </is>
       </c>
     </row>
@@ -2628,19 +2628,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.3</v>
+        <v>0.926</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>93.84</v>
+        <v>27.83</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4324</v>
+        <v>1.4259</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
@@ -2667,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>14.46</v>
+        <v>94.27</v>
       </c>
       <c r="F77" t="n">
         <v>4</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>PLD</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.2099</v>
+        <v>1.9739</v>
       </c>
       <c r="C78" t="n">
         <v>7</v>
@@ -2697,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>64.2</v>
+        <v>49.065</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PRGS</t>
         </is>
       </c>
     </row>
@@ -2718,19 +2718,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1446</v>
+        <v>2.5066</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>34.77</v>
+        <v>95.91</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SKY</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
@@ -2748,19 +2748,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4307</v>
+        <v>1.8209</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>22.98</v>
+        <v>135.05</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SNDR</t>
+          <t>RCL</t>
         </is>
       </c>
     </row>
@@ -2778,19 +2778,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7266</v>
+        <v>1.364</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>64.54000000000001</v>
+        <v>96.27</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
@@ -2808,19 +2808,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.1622</v>
+        <v>0.5531</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>83.05</v>
+        <v>28.14</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -2838,19 +2838,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.456</v>
+        <v>1.1763</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>32.02</v>
+        <v>64.97</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
@@ -2868,19 +2868,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.8355</v>
+        <v>1.1454</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>369.88</v>
+        <v>54.97</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>SMTC</t>
         </is>
       </c>
     </row>
@@ -2898,19 +2898,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.5719</v>
+        <v>0.5663</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>332.02</v>
+        <v>40</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>SNV</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2928,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0363</v>
+        <v>0.7835</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>76.19</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2958,19 +2958,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7233000000000001</v>
+        <v>2.0013</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>42.77</v>
+        <v>157.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.179</v>
+        <v>0.5135</v>
       </c>
       <c r="C88" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>131.03</v>
+        <v>32.46</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>STAG</t>
         </is>
       </c>
     </row>
@@ -3018,19 +3018,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.8793</v>
+        <v>1.8484</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>93.45999999999999</v>
+        <v>139.28</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>THG</t>
         </is>
       </c>
     </row>
@@ -3048,19 +3048,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8823</v>
+        <v>0.4142</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>67.01000000000001</v>
+        <v>17.38</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>TILE</t>
         </is>
       </c>
     </row>
@@ -3078,19 +3078,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1066</v>
+        <v>4.4697</v>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>95.06</v>
+        <v>339.19</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
@@ -3108,19 +3108,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.1224</v>
+        <v>0.9973</v>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>69.13</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
@@ -3138,19 +3138,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.797</v>
+        <v>0.7592</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>40.64</v>
+        <v>44.14</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.5322</v>
+        <v>1.8336</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
@@ -3177,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>155.94</v>
+        <v>132.26</v>
       </c>
       <c r="F94" t="n">
         <v>3</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
@@ -3198,19 +3198,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7851</v>
+        <v>1.2329</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>58.11</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
@@ -3228,19 +3228,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1767</v>
+        <v>0.5645</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>81.28</v>
+        <v>47.45</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
@@ -3258,28 +3258,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.5915</v>
+        <v>2.5943</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>168.1</v>
+        <v>185.32</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ABMD</t>
+          <t>UNP</t>
         </is>
       </c>
     </row>
@@ -3288,28 +3288,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3262</v>
+        <v>1.8254</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5.04</v>
+        <v>154.4</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>UTX</t>
         </is>
       </c>
     </row>
@@ -3318,28 +3318,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2446</v>
+        <v>4.3953</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>17.97</v>
+        <v>235.83</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>AVRO</t>
+          <t>VRTX</t>
         </is>
       </c>
     </row>
@@ -3348,28 +3348,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7299</v>
+        <v>1.1461</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>8.369999999999999</v>
+        <v>98.17</v>
       </c>
       <c r="F100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
@@ -3378,28 +3378,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5891</v>
+        <v>0.7684</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>27.63</v>
+        <v>41.78</v>
       </c>
       <c r="F101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CTB</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
@@ -3408,28 +3408,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2772</v>
+        <v>0.8109</v>
       </c>
       <c r="C102" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>70.36</v>
+      </c>
+      <c r="F102" t="n">
         <v>2</v>
       </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" t="n">
-        <v>81.02</v>
-      </c>
-      <c r="F102" t="n">
-        <v>8</v>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>CVGW</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -3438,28 +3438,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.4959</v>
+        <v>1.1063</v>
       </c>
       <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="F103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>57.73</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6</v>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9394</v>
+        <v>3.1209</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>10.69</v>
+        <v>66.3</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>EOLS</t>
+          <t>ARCH</t>
         </is>
       </c>
     </row>
@@ -3498,19 +3498,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6637</v>
+        <v>0.7796</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>8.369999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="F105" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -3528,19 +3528,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9</v>
+        <v>0.6307</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
       </c>
       <c r="E106" t="n">
-        <v>17.34</v>
+        <v>11.1</v>
       </c>
       <c r="F106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FIXX</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -3558,20 +3558,20 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0283</v>
+        <v>1.0981</v>
       </c>
       <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="F107" t="n">
         <v>4</v>
       </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6</v>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>SELL</t>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>CLR</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4763</v>
+        <v>1.538</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>13.1</v>
+        <v>57.94</v>
       </c>
       <c r="F108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>KURA</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -3618,19 +3618,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6183</v>
+        <v>0.4278</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
         <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>19.4</v>
+        <v>5.3</v>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>MOV</t>
+          <t>KLXE</t>
         </is>
       </c>
     </row>
@@ -3648,19 +3648,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.2893</v>
+        <v>0.4342</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>35.56</v>
+        <v>12.76</v>
       </c>
       <c r="F110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3669,157 +3669,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.3741</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TAST</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.2267</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>10</v>
-      </c>
-      <c r="E112" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>TWNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5272</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>10</v>
-      </c>
-      <c r="E113" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VCEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4436</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>10</v>
-      </c>
-      <c r="E114" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>WNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>10</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>XERS</t>
+          <t>KURA</t>
         </is>
       </c>
     </row>

--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,19 +408,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1561</v>
+        <v>1.5533</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>50.33</v>
+        <v>92.03</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>ABC</t>
         </is>
       </c>
     </row>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1044</v>
+        <v>1.5804</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>16.15</v>
+        <v>91.86</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -459,7 +459,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7953</v>
+        <v>0.1088</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>79.75</v>
+        <v>16.17</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AEE</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -498,19 +498,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1413</v>
+        <v>0.2546</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>111.28</v>
+        <v>18.87</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>AHH</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.4471</v>
+        <v>1.3127</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>117.55</v>
+        <v>63.89</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
@@ -558,19 +558,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4182</v>
+        <v>0.3343</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>270.28</v>
+        <v>27.19</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.124</v>
+        <v>3.0482</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>238.04</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.1306</v>
+        <v>1.204</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>50.36</v>
+        <v>52.01</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -648,16 +648,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.065</v>
+        <v>0.48</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>61.24</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ATVI</t>
+          <t>ASPU</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8286</v>
+        <v>0.856</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>134.72</v>
+        <v>42.43</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>ATKR</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9983</v>
+        <v>0.1253</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>48.75</v>
+        <v>6.07</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BERY</t>
+          <t>BGCP</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5806</v>
+        <v>0.5644</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>36.84</v>
+        <v>37.03</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -768,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.9311</v>
+        <v>0.5727</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>145.25</v>
+        <v>31.41</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BMCH</t>
         </is>
       </c>
     </row>
@@ -798,19 +798,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8224</v>
+        <v>1.1979</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9</v>
+        <v>55.32</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>CAH</t>
         </is>
       </c>
     </row>
@@ -828,19 +828,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.9928</v>
+        <v>1.2197</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>154.7</v>
+        <v>74.8</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CCMP</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9082</v>
+        <v>0.7435</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>40.87</v>
+        <v>34.28</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2426</v>
+        <v>1.2553</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>58.64</v>
+        <v>47.07</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CGNX</t>
+          <t>CIT</t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016</v>
+        <v>2.2773</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>22.67</v>
+        <v>106.76</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.3314</v>
+        <v>1.6156</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>163.95</v>
+        <v>99.64</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
@@ -978,19 +978,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.2368</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>41.71</v>
+        <v>21.55</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CUZ</t>
+          <t>CSWC</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9165</v>
+        <v>1.6097</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>84.05</v>
+        <v>119.23</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -1038,19 +1038,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9101</v>
+        <v>1.2923</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>55.71</v>
+        <v>108.54</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>DGX</t>
         </is>
       </c>
     </row>
@@ -1068,19 +1068,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5377</v>
+        <v>0.9864000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>77.81</v>
+        <v>57.42</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -1098,19 +1098,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.1514</v>
+        <v>1.3805</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>56.23</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6271</v>
+        <v>1.1125</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>47.39</v>
+        <v>32.23</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ELAN</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.4386</v>
+        <v>1.5946</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>93.2</v>
+        <v>77.7</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6014</v>
+        <v>0.5441</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>49.06</v>
+        <v>47.66</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.5261</v>
+        <v>1.0515</v>
       </c>
       <c r="C29" t="n">
         <v>7</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>120.68</v>
+        <v>73.14</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5598</v>
+        <v>1.3531</v>
       </c>
       <c r="C30" t="n">
         <v>6</v>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>27.51</v>
+        <v>93.48</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>EXP</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.721</v>
+        <v>0.5837</v>
       </c>
       <c r="C31" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>34.83</v>
+        <v>49.89</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FSS</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -1308,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6546999999999999</v>
+        <v>19.1211</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>45.55</v>
+        <v>1485.95</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>GOOG</t>
         </is>
       </c>
     </row>
@@ -1338,19 +1338,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.8361</v>
+        <v>18.8302</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1480.39</v>
+        <v>1484.17</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.7766</v>
+        <v>3.1352</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1479.52</v>
+        <v>200.06</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
@@ -1398,19 +1398,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.2419</v>
+        <v>0.2304</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>198.62</v>
+        <v>12.15</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>GRBK</t>
         </is>
       </c>
     </row>
@@ -1428,19 +1428,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.6038</v>
+        <v>0.5483</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>113.92</v>
+        <v>47.85</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>HE</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.784</v>
+        <v>1.8862</v>
       </c>
       <c r="C37" t="n">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>54.32</v>
+        <v>149.04</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>HUBB</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4563</v>
+        <v>2.0186</v>
       </c>
       <c r="C38" t="n">
         <v>6</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>20.43</v>
+        <v>76.5</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>HOMB</t>
+          <t>IBP</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1518,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0483</v>
+        <v>0.509</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>183.23</v>
+        <v>9.74</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>ICAD</t>
         </is>
       </c>
     </row>
@@ -1548,19 +1548,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4839</v>
+        <v>0.7548</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>34.55</v>
+        <v>33.07</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IIIV</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.9703</v>
+        <v>1.256</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>149.16</v>
+        <v>62.73</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>INTC</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.7771</v>
+        <v>1.7191</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>78.22</v>
+        <v>91.06</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>IBKC</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -1638,19 +1638,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.3946</v>
+        <v>0.1662</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>26.01</v>
+        <v>17.32</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IIIN</t>
+          <t>IVR</t>
         </is>
       </c>
     </row>
@@ -1668,19 +1668,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.5886</v>
+        <v>1.8716</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>89.03</v>
+        <v>149.64</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4427</v>
+        <v>0.8823</v>
       </c>
       <c r="C45" t="n">
         <v>6</v>
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>40.6</v>
+        <v>38.27</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>JBGS</t>
+          <t>KBH</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5667</v>
+        <v>3.6545</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>56.94</v>
+        <v>180.13</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.192</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>18.61</v>
+        <v>57.61</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6862</v>
+        <v>1.4998</v>
       </c>
       <c r="C48" t="n">
         <v>8</v>
@@ -1797,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>57.16</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3504</v>
+        <v>1.4694</v>
       </c>
       <c r="C49" t="n">
         <v>7</v>
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>86.55</v>
+        <v>65.77</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LOGM</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
@@ -1848,19 +1848,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.8421</v>
+        <v>2.2041</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>308</v>
+        <v>141.56</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
@@ -1878,19 +1878,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6387</v>
+        <v>0.6728</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>49.09</v>
+        <v>57.75</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -1908,19 +1908,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9747</v>
+        <v>1.9465</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>34.99</v>
+        <v>121.91</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
@@ -1938,19 +1938,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.4245</v>
+        <v>0.6798</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>156.33</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>LQDA</t>
         </is>
       </c>
     </row>
@@ -1968,19 +1968,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.5861</v>
+        <v>1.6616</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>257.63</v>
+        <v>121.09</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDT</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.6013</v>
+        <v>0.2071</v>
       </c>
       <c r="C55" t="n">
         <v>7</v>
@@ -2007,10 +2007,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>119.03</v>
+        <v>11.93</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>MRCC</t>
         </is>
       </c>
     </row>
@@ -2028,19 +2028,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5135</v>
+        <v>1.5916</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>34.54</v>
+        <v>59.17</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MU</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2058,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7076</v>
+        <v>0.2126</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>32.32</v>
+        <v>12.18</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MGP</t>
+          <t>MWA</t>
         </is>
       </c>
     </row>
@@ -2088,19 +2088,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3649</v>
+        <v>0.5593</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>22.29</v>
+        <v>21.54</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MPW</t>
+          <t>MXL</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2265</v>
+        <v>2.3234</v>
       </c>
       <c r="C59" t="n">
         <v>6</v>
@@ -2127,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>12.13</v>
+        <v>170.34</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -2148,19 +2148,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.2656</v>
+        <v>0.4788</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>109.31</v>
+        <v>12.89</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>NOVA</t>
         </is>
       </c>
     </row>
@@ -2178,19 +2178,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.1184</v>
+        <v>4.4839</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>169.5</v>
+        <v>250.05</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
@@ -2208,19 +2208,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.242</v>
+        <v>0.0568</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>104.53</v>
+        <v>6.36</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>NYMT</t>
         </is>
       </c>
     </row>
@@ -2238,19 +2238,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.0264</v>
+        <v>0.2961</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>97.64</v>
+        <v>5.03</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>OESX</t>
         </is>
       </c>
     </row>
@@ -2268,19 +2268,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1527</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>16.7</v>
+        <v>35.08</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>NRZ</t>
+          <t>OPI</t>
         </is>
       </c>
     </row>
@@ -2298,19 +2298,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.6052</v>
+        <v>3.4582</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>209.32</v>
+        <v>243.73</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
@@ -2328,19 +2328,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0263</v>
+        <v>0.9874000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>76.34999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
@@ -2358,19 +2358,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9996</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>77.17</v>
+        <v>60.3</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08260000000000001</v>
+        <v>1.6544</v>
       </c>
       <c r="C68" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6.23</v>
+        <v>88.45</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
@@ -2418,19 +2418,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9031</v>
+        <v>1.7045</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>88.23999999999999</v>
+        <v>143.38</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.2927</v>
+        <v>3.3939</v>
       </c>
       <c r="C70" t="n">
         <v>7</v>
@@ -2457,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>141.6</v>
+        <v>126.71</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PCTY</t>
+          <t>PFPT</t>
         </is>
       </c>
     </row>
@@ -2478,19 +2478,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3527</v>
+        <v>0.9673</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>23.27</v>
+        <v>28.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PDM</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.5327</v>
+        <v>0.1872</v>
       </c>
       <c r="C72" t="n">
         <v>7</v>
@@ -2517,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>86.44</v>
+        <v>23.21</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>PMT</t>
         </is>
       </c>
     </row>
@@ -2538,19 +2538,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.6402</v>
+        <v>1.3966</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>141.26</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
@@ -2568,19 +2568,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8772</v>
+        <v>2.3271</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>57.08</v>
+        <v>164.38</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
@@ -2598,19 +2598,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1846</v>
+        <v>1.0877</v>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>126.41</v>
+        <v>22.04</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SIBN</t>
         </is>
       </c>
     </row>
@@ -2628,19 +2628,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.926</v>
+        <v>1.0752</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>27.83</v>
+        <v>54.45</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>SMTC</t>
         </is>
       </c>
     </row>
@@ -2658,19 +2658,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4259</v>
+        <v>0.759</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>94.27</v>
+        <v>68.3</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2688,19 +2688,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.9739</v>
+        <v>1.1842</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>49.065</v>
+        <v>84.67</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
@@ -2718,19 +2718,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.5066</v>
+        <v>0.1791</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>95.91</v>
+        <v>25.57</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>STWD</t>
         </is>
       </c>
     </row>
@@ -2748,19 +2748,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.8209</v>
+        <v>0.1231</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>135.05</v>
+        <v>14.26</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>TCPC</t>
         </is>
       </c>
     </row>
@@ -2778,19 +2778,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.364</v>
+        <v>0.6686</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>96.27</v>
+        <v>26.78</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>TENB</t>
         </is>
       </c>
     </row>
@@ -2808,19 +2808,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5531</v>
+        <v>4.6494</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>28.14</v>
+        <v>340.05</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
@@ -2838,19 +2838,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1763</v>
+        <v>0.6567</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>64.97</v>
+        <v>44.24</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
@@ -2868,19 +2868,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1454</v>
+        <v>0.1217</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>54.97</v>
+        <v>15.26</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -2898,19 +2898,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5663</v>
+        <v>0.2278</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>40</v>
+        <v>16.49</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>UMH</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2928,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7835</v>
+        <v>0.9434</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>67.26000000000001</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -2958,19 +2958,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0013</v>
+        <v>0.8756</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>157.2</v>
+        <v>60.71</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>XRAY</t>
         </is>
       </c>
     </row>
@@ -2988,19 +2988,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5135</v>
+        <v>1.6864</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>32.46</v>
+        <v>34.62</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>YMAB</t>
         </is>
       </c>
     </row>
@@ -3018,19 +3018,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.8484</v>
+        <v>2.0041</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>139.28</v>
+        <v>150.98</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
@@ -3048,28 +3048,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4142</v>
+        <v>0.8581</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>17.38</v>
+        <v>18.04</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>TILE</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -3078,28 +3078,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.4697</v>
+        <v>0.7559</v>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>339.19</v>
+        <v>15.2</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BLFS</t>
         </is>
       </c>
     </row>
@@ -3108,28 +3108,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9973</v>
+        <v>0.578</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>78.95999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>BTU</t>
         </is>
       </c>
     </row>
@@ -3138,28 +3138,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7592</v>
+        <v>0.6716</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>44.14</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -3168,28 +3168,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.8336</v>
+        <v>1.1212</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>132.26</v>
+        <v>30.4</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>CLR</t>
         </is>
       </c>
     </row>
@@ -3198,28 +3198,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2329</v>
+        <v>0.5904</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>92.84999999999999</v>
+        <v>15.43</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -3228,28 +3228,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5645</v>
+        <v>0.3489</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>47.45</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>DFIN</t>
         </is>
       </c>
     </row>
@@ -3258,28 +3258,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.5943</v>
+        <v>0.3809</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>185.32</v>
+        <v>5.66</v>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>DO</t>
         </is>
       </c>
     </row>
@@ -3288,28 +3288,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.8254</v>
+        <v>1.5591</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>154.4</v>
+        <v>56.98</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>UTX</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -3318,28 +3318,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.3953</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>235.83</v>
+        <v>7.4</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>EQT</t>
         </is>
       </c>
     </row>
@@ -3348,28 +3348,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1461</v>
+        <v>0.8156</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>98.17</v>
+        <v>16.17</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>FIXX</t>
         </is>
       </c>
     </row>
@@ -3378,28 +3378,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7684</v>
+        <v>0.3124</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>41.78</v>
+        <v>5.25</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>GOGO</t>
         </is>
       </c>
     </row>
@@ -3408,28 +3408,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8109</v>
+        <v>0.4797</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>70.36</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>LBRT</t>
         </is>
       </c>
     </row>
@@ -3438,28 +3438,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.1063</v>
+        <v>1.1897</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>83.45999999999999</v>
+        <v>21.49</v>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>PDCE</t>
         </is>
       </c>
     </row>
@@ -3468,19 +3468,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.1209</v>
+        <v>0.5325</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>66.3</v>
+        <v>19.68</v>
       </c>
       <c r="F104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>ARCH</t>
+          <t>SCHN</t>
         </is>
       </c>
     </row>
@@ -3498,19 +3498,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7796</v>
+        <v>1.1737</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>19.99</v>
+        <v>23</v>
       </c>
       <c r="F105" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3519,157 +3519,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>BCEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.6307</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10</v>
-      </c>
-      <c r="E106" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>CEIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.0981</v>
-      </c>
-      <c r="C107" t="n">
-        <v>5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="F107" t="n">
-        <v>4</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>CLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.538</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10</v>
-      </c>
-      <c r="E108" t="n">
-        <v>57.94</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.4278</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>10</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>KLXE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.4342</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>10</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F110" t="n">
-        <v>7</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>KURA</t>
+          <t>SFIX</t>
         </is>
       </c>
     </row>

--- a/app/data/Output.xlsx
+++ b/app/data/Output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5533</v>
+        <v>0.1171</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
@@ -417,7 +417,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>92.03</v>
+        <v>16.3</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -429,7 +429,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5804</v>
+        <v>0.3234</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>91.86</v>
+        <v>27.35</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -459,7 +459,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1088</v>
+        <v>1.1044</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>16.17</v>
+        <v>52.14</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
@@ -498,19 +498,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2546</v>
+        <v>1.5005</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>18.87</v>
+        <v>62.81</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AHH</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3127</v>
+        <v>0.1997</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>63.89</v>
+        <v>15.98</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>BDN</t>
         </is>
       </c>
     </row>
@@ -558,19 +558,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3343</v>
+        <v>0.9586</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>27.19</v>
+        <v>41.5</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BHF</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0482</v>
+        <v>1.2458</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>238.04</v>
+        <v>75.42</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -618,19 +618,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.204</v>
+        <v>0.7008</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>52.01</v>
+        <v>34.45</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
@@ -648,19 +648,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.48</v>
+        <v>0.9776</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>8.449999999999999</v>
+        <v>23.02</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ASPU</t>
+          <t>CLW</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.856</v>
+        <v>3.5518</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>42.43</v>
+        <v>128.48</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ATKR</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1253</v>
+        <v>1.1502</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6.07</v>
+        <v>58.99</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BGCP</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5644</v>
+        <v>1.5044</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>37.03</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5727</v>
+        <v>1.997</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>31.41</v>
+        <v>137.55</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BMCH</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
@@ -798,19 +798,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.1979</v>
+        <v>0.982</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>55.32</v>
+        <v>32.25</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>ELAN</t>
         </is>
       </c>
     </row>
@@ -828,19 +828,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.2197</v>
+        <v>1.594</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>74.8</v>
+        <v>50.93</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7435</v>
+        <v>0.5473</v>
       </c>
       <c r="C17" t="n">
         <v>7</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>34.28</v>
+        <v>47.95</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2553</v>
+        <v>1.0712</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>47.07</v>
+        <v>73.75</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CIT</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.2773</v>
+        <v>0.5889</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>106.76</v>
+        <v>50.35</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.6156</v>
+        <v>0.6818</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>99.64</v>
+        <v>43.51</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
@@ -978,19 +978,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2368</v>
+        <v>0.2263</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>21.55</v>
+        <v>12.26</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CSWC</t>
+          <t>GRBK</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.6097</v>
+        <v>0.5907</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>119.23</v>
+        <v>48.28</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>HE</t>
         </is>
       </c>
     </row>
@@ -1038,19 +1038,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.2923</v>
+        <v>0.5356</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>108.54</v>
+        <v>35.55</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9864000000000001</v>
+        <v>2.2229</v>
       </c>
       <c r="C24" t="n">
         <v>6</v>
@@ -1077,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>57.42</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>IBP</t>
         </is>
       </c>
     </row>
@@ -1098,19 +1098,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.3805</v>
+        <v>1.1998</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>78.90000000000001</v>
+        <v>63.32</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>INTC</t>
         </is>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1125</v>
+        <v>1.6333</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>32.23</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.5946</v>
+        <v>0.155</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>77.7</v>
+        <v>17.4</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>IVR</t>
         </is>
       </c>
     </row>
@@ -1188,16 +1188,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5441</v>
+        <v>0.5393</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>47.66</v>
+        <v>40.92</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>JBGS</t>
         </is>
       </c>
     </row>
@@ -1218,19 +1218,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0515</v>
+        <v>2.2443</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>73.14</v>
+        <v>152.41</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.3531</v>
+        <v>0.9462</v>
       </c>
       <c r="C30" t="n">
         <v>6</v>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>93.48</v>
+        <v>38.89</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>KBH</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5837</v>
+        <v>0.5722</v>
       </c>
       <c r="C31" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>49.89</v>
+        <v>57.83</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -1308,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.1211</v>
+        <v>1.6435</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1485.95</v>
+        <v>67.27</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.8302</v>
+        <v>5.1132</v>
       </c>
       <c r="C33" t="n">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1484.17</v>
+        <v>428.78</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>LMT</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.1352</v>
+        <v>0.7022</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>200.06</v>
+        <v>58.46</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -1398,19 +1398,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2304</v>
+        <v>0.7978</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>12.15</v>
+        <v>7.15</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>LQDA</t>
         </is>
       </c>
     </row>
@@ -1428,19 +1428,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5483</v>
+        <v>0.3363</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>47.85</v>
+        <v>30.08</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>MDU</t>
         </is>
       </c>
     </row>
@@ -1458,19 +1458,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.8862</v>
+        <v>0.2107</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>149.04</v>
+        <v>12.07</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>MRCC</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0186</v>
+        <v>1.5793</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>76.5</v>
+        <v>59.2</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>IBP</t>
+          <t>MU</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1518,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.509</v>
+        <v>0.3462</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9.74</v>
+        <v>17.35</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ICAD</t>
+          <t>MYE</t>
         </is>
       </c>
     </row>
@@ -1548,19 +1548,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7548</v>
+        <v>2.6447</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>33.07</v>
+        <v>172.29</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>IIIV</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.256</v>
+        <v>0.486</v>
       </c>
       <c r="C41" t="n">
         <v>6</v>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>62.73</v>
+        <v>13.04</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>NOVA</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.7191</v>
+        <v>0.3958</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>91.06</v>
+        <v>18.08</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>NX</t>
         </is>
       </c>
     </row>
@@ -1638,16 +1638,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1662</v>
+        <v>0.772</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>17.32</v>
+        <v>35.55</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IVR</t>
+          <t>OPI</t>
         </is>
       </c>
     </row>
@@ -1668,19 +1668,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.8716</v>
+        <v>0.0863</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>149.64</v>
+        <v>6.35</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>ORC</t>
         </is>
       </c>
     </row>
@@ -1698,19 +1698,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8823</v>
+        <v>0.342</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>38.27</v>
+        <v>23.3</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>KBH</t>
+          <t>PDM</t>
         </is>
       </c>
     </row>
@@ -1728,19 +1728,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.6545</v>
+        <v>0.8688</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>180.13</v>
+        <v>61.74</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5639999999999999</v>
+        <v>1.6596</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>57.61</v>
+        <v>143.65</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.4998</v>
+        <v>0.1723</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>93.95999999999999</v>
+        <v>14.22</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PGRE</t>
         </is>
       </c>
     </row>
@@ -1818,19 +1818,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4694</v>
+        <v>1.0298</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>65.77</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -1848,19 +1848,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.2041</v>
+        <v>2.5185</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>141.56</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>PLXS</t>
         </is>
       </c>
     </row>
@@ -1878,19 +1878,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6728</v>
+        <v>0.5954</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>57.75</v>
+        <v>22.76</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>PRIM</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.9465</v>
+        <v>3.1507</v>
       </c>
       <c r="C52" t="n">
         <v>5</v>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>121.91</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="F52" t="n">
         <v>5</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
@@ -1938,19 +1938,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6798</v>
+        <v>0.3691</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>14.78</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>LQDA</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.6616</v>
+        <v>1.9599</v>
       </c>
       <c r="C54" t="n">
         <v>6</v>
@@ -1977,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>121.09</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>SLG</t>
         </is>
       </c>
     </row>
@@ -1998,19 +1998,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2071</v>
+        <v>0.8252</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>11.93</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MRCC</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -2028,20 +2028,20 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.5916</v>
+        <v>2.1431</v>
       </c>
       <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>160.06</v>
+      </c>
+      <c r="F56" t="n">
         <v>3</v>
       </c>
-      <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" t="n">
-        <v>59.17</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2058,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2126</v>
+        <v>1.3374</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>12.18</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
@@ -2088,19 +2088,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5593</v>
+        <v>0.1913</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>21.54</v>
+        <v>25.62</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MXL</t>
+          <t>STWD</t>
         </is>
       </c>
     </row>
@@ -2118,19 +2118,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.3234</v>
+        <v>0.1354</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>170.34</v>
+        <v>15.29</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -2148,19 +2148,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4788</v>
+        <v>0.2302</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>12.89</v>
+        <v>16.64</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>UMH</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.4839</v>
+        <v>3.6908</v>
       </c>
       <c r="C61" t="n">
         <v>5</v>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>250.05</v>
+        <v>187.19</v>
       </c>
       <c r="F61" t="n">
         <v>5</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>UNP</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0568</v>
+        <v>0.8576</v>
       </c>
       <c r="C62" t="n">
         <v>7</v>
@@ -2217,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6.36</v>
+        <v>68.61</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NYMT</t>
+          <t>VNO</t>
         </is>
       </c>
     </row>
@@ -2238,19 +2238,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2961</v>
+        <v>2.2294</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5.03</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>OESX</t>
+          <t>WDC</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7786999999999999</v>
+        <v>1.0017</v>
       </c>
       <c r="C64" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>35.08</v>
+        <v>71.38</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>OPI</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -2298,19 +2298,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.4582</v>
+        <v>0.155</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>243.73</v>
+        <v>12.18</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>XAN</t>
         </is>
       </c>
     </row>
@@ -2328,19 +2328,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9874000000000001</v>
+        <v>1.6711</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>89.59999999999999</v>
+        <v>34.96</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>YMAB</t>
         </is>
       </c>
     </row>
@@ -2358,28 +2358,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6909999999999999</v>
+        <v>1.1366</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>60.3</v>
+        <v>25.62</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>AAWW</t>
         </is>
       </c>
     </row>
@@ -2388,28 +2388,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.6544</v>
+        <v>0.9429</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>88.45</v>
+        <v>24.72</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ALLO</t>
         </is>
       </c>
     </row>
@@ -2418,28 +2418,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.7045</v>
+        <v>0.7885</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>143.38</v>
+        <v>17.76</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -2448,28 +2448,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.3939</v>
+        <v>4.8305</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>126.71</v>
+        <v>67.19</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PFPT</t>
+          <t>BPMC</t>
         </is>
       </c>
     </row>
@@ -2478,28 +2478,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9673</v>
+        <v>0.5524</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>28.5</v>
+        <v>7.62</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>BTU</t>
         </is>
       </c>
     </row>
@@ -2508,28 +2508,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1872</v>
+        <v>0.6373</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>23.21</v>
+        <v>9.84</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -2538,28 +2538,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.3966</v>
+        <v>0.5563</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>97.23999999999999</v>
+        <v>15.23</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -2568,28 +2568,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.3271</v>
+        <v>0.5899</v>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>164.38</v>
+        <v>7.88</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -2598,28 +2598,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.0877</v>
+        <v>0.3667</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>22.04</v>
+        <v>5.42</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>DO</t>
         </is>
       </c>
     </row>
@@ -2628,28 +2628,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0752</v>
+        <v>1.5853</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>54.45</v>
+        <v>56</v>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -2658,28 +2658,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.759</v>
+        <v>0.5002</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>68.3</v>
+        <v>7.12</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>EQT</t>
         </is>
       </c>
     </row>
@@ -2688,28 +2688,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1842</v>
+        <v>1.2909</v>
       </c>
       <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="F78" t="n">
         <v>8</v>
       </c>
-      <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" t="n">
-        <v>84.67</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>GTHX</t>
         </is>
       </c>
     </row>
@@ -2718,28 +2718,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1791</v>
+        <v>0.4617</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>25.57</v>
+        <v>9.32</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>STWD</t>
+          <t>LBRT</t>
         </is>
       </c>
     </row>
@@ -2748,28 +2748,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1231</v>
+        <v>0.4271</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>14.26</v>
+        <v>25.08</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>TCPC</t>
+          <t>PEB</t>
         </is>
       </c>
     </row>
@@ -2778,28 +2778,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6686</v>
+        <v>0.6106</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>26.78</v>
+        <v>10.29</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>TENB</t>
+          <t>PUMP</t>
         </is>
       </c>
     </row>
@@ -2808,28 +2808,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.6494</v>
+        <v>1.2652</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>340.05</v>
+        <v>25.25</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>PVAC</t>
         </is>
       </c>
     </row>
@@ -2838,28 +2838,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6567</v>
+        <v>2.173</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>44.24</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>RLI</t>
         </is>
       </c>
     </row>
@@ -2868,28 +2868,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1217</v>
+        <v>0.587</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>15.26</v>
+        <v>19.55</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>SCHN</t>
         </is>
       </c>
     </row>
@@ -2898,28 +2898,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2278</v>
+        <v>0.3457</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>16.49</v>
+        <v>8.01</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UMH</t>
+          <t>SGMO</t>
         </is>
       </c>
     </row>
@@ -2928,28 +2928,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9434</v>
+        <v>0.5828</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>71.23999999999999</v>
+        <v>7.41</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>UNFI</t>
         </is>
       </c>
     </row>
@@ -2958,28 +2958,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8756</v>
+        <v>0.5865</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>60.71</v>
+        <v>15.19</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>VIRT</t>
         </is>
       </c>
     </row>
@@ -2988,28 +2988,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.6864</v>
+        <v>0.7291</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>34.62</v>
+        <v>12.77</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>VYGR</t>
         </is>
       </c>
     </row>
@@ -3018,508 +3018,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.0041</v>
+        <v>0.4338</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>150.98</v>
+        <v>9.69</v>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ZBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.8581</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
-      <c r="E90" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>BCEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.7559</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10</v>
-      </c>
-      <c r="E91" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>6</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>BLFS</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>BTU</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6716</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>10</v>
-      </c>
-      <c r="E93" t="n">
-        <v>10</v>
-      </c>
-      <c r="F93" t="n">
-        <v>8</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>CEIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.1212</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10</v>
-      </c>
-      <c r="E94" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>CLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10</v>
-      </c>
-      <c r="E95" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>COG</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.3489</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>DFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.3809</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.5591</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10</v>
-      </c>
-      <c r="E98" t="n">
-        <v>56.98</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5276999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8156</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
-      <c r="E100" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>FIXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.3124</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>GOGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.4797</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>6</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>LBRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.1897</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F103" t="n">
-        <v>9</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PDCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5325</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10</v>
-      </c>
-      <c r="E104" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="F104" t="n">
-        <v>6</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>SCHN</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.1737</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10</v>
-      </c>
-      <c r="E105" t="n">
-        <v>23</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>SFIX</t>
+          <t>X</t>
         </is>
       </c>
     </row>
